--- a/gmh-web/doc/gmh2.0.xlsx
+++ b/gmh-web/doc/gmh2.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuhuan.zhou\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\java\workspace\gmh\gmh-web\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -925,7 +925,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -935,6 +935,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,18 +1037,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1054,17 +1048,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1382,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M124" sqref="M124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1398,7 +1407,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1424,1371 +1433,1371 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="27.95" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="14" t="s">
         <v>163</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>204</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="9"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="19"/>
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="9"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="9"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="9"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="27">
-      <c r="A14" s="9"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9"/>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="14" t="s">
         <v>165</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="13" t="s">
         <v>205</v>
       </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="9"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="9"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="9"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="9"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="9"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="27">
-      <c r="A22" s="9"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="9"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="9"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="9"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="9"/>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="13" t="s">
         <v>204</v>
       </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="9"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="9"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="9"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="9"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="9"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="9"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="9"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="9"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="9"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="9"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="9"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="9"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="13"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="9"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="13"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="9"/>
-      <c r="B42" s="16" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="14" t="s">
         <v>170</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="13" t="s">
         <v>206</v>
       </c>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="9"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="9"/>
+      <c r="G43" s="13"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="9"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="14"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="9"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="9"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="9"/>
+      <c r="G45" s="13"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="9"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="G46" s="9"/>
+      <c r="G46" s="13"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="9"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="13"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="9"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="13"/>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="9"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="9"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="13"/>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="9"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="9"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="13"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="9"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="9"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="13"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="9"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="9"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="13"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="27">
-      <c r="A53" s="9"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="9"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="13"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="9"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
       <c r="D54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="9"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="9"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="9"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="13"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="9"/>
-      <c r="B56" s="17" t="s">
+      <c r="A56" s="13"/>
+      <c r="B56" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="17"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="13" t="s">
         <v>204</v>
       </c>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="9"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="9"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="13"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="9"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="9"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="13"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="9"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="9"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="13"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="9"/>
-      <c r="B60" s="17" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="17"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="13" t="s">
         <v>207</v>
       </c>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="9"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="9"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="13"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" ht="27">
-      <c r="A62" s="9"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="9"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="13"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="9"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="9"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="13"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="9"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="9"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="13"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="9"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="9"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="13"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="9"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="9"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="13"/>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" ht="27">
-      <c r="A67" s="9"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="9"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="13"/>
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="9"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="9"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="13"/>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" ht="14.1" customHeight="1">
-      <c r="A69" s="9"/>
-      <c r="B69" s="17" t="s">
+      <c r="A69" s="13"/>
+      <c r="B69" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="17"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="16" t="s">
         <v>195</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
     <row r="70" spans="1:8" ht="27">
-      <c r="A70" s="9"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="11"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="16"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="9"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="11"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="16"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" ht="27">
-      <c r="A72" s="9"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="11"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="16"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" ht="42.95" customHeight="1">
-      <c r="A73" s="9"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="9" t="s">
+      <c r="E73" s="14"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="13" t="s">
         <v>207</v>
       </c>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" ht="14.1" customHeight="1">
-      <c r="A74" s="9"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="10" t="s">
+      <c r="E74" s="14"/>
+      <c r="F74" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="G74" s="9"/>
+      <c r="G74" s="13"/>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="9"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="9"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="13"/>
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" ht="48.6" customHeight="1">
-      <c r="A76" s="9"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="9"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13"/>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="9"/>
-      <c r="B77" s="16" t="s">
+      <c r="A77" s="13"/>
+      <c r="B77" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F77" s="10"/>
-      <c r="G77" s="9" t="s">
+      <c r="F77" s="12"/>
+      <c r="G77" s="13" t="s">
         <v>207</v>
       </c>
       <c r="H77" s="3"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="9"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="9"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="13"/>
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A79" s="9"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="9"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="13"/>
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="9"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16" t="s">
+      <c r="A80" s="13"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18" t="s">
         <v>99</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="9"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="13"/>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="9"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
       <c r="D81" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="9"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="13"/>
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" ht="60" customHeight="1">
-      <c r="A82" s="9"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
       <c r="D82" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="9"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="13"/>
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="9"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16" t="s">
+      <c r="A83" s="13"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="F83" s="10"/>
-      <c r="G83" s="9"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="13"/>
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" ht="27">
-      <c r="A84" s="9"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
       <c r="D84" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="9"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="13"/>
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" ht="48.95" customHeight="1">
-      <c r="A85" s="9"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
       <c r="D85" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="9"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="13"/>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" ht="27">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9" t="s">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="13" t="s">
         <v>107</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="G86" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="H86" s="14" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="27">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
       <c r="D87" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="8"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="14"/>
     </row>
     <row r="88" spans="1:8" ht="27">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
       <c r="D88" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="8"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
       <c r="D89" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="8"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="8"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8" ht="27">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
       <c r="D91" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="8"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8" ht="27">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
       <c r="D92" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="8"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8" ht="27">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9" t="s">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13" t="s">
         <v>114</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="G93" s="9"/>
-      <c r="H93" s="8"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="14"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
       <c r="D94" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="8"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="14"/>
     </row>
     <row r="95" spans="1:8" ht="27">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
       <c r="D95" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="8"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14"/>
     </row>
     <row r="96" spans="1:8" ht="27">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
       <c r="D96" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="8"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="14"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
       <c r="D97" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="8"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:8" ht="27">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
       <c r="D98" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="8"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8" ht="27">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9" t="s">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="G99" s="9"/>
-      <c r="H99" s="8"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="14"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
       <c r="D100" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="8"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="14"/>
     </row>
     <row r="101" spans="1:8" ht="27">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
       <c r="D101" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="8"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="14"/>
     </row>
     <row r="102" spans="1:8" ht="27">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
       <c r="D102" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="8"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="14"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
       <c r="D103" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="8"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="14"/>
     </row>
     <row r="104" spans="1:8" ht="27">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
       <c r="D104" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="8"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="14"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9" t="s">
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D105" s="4" t="s">
@@ -2797,232 +2806,232 @@
       <c r="E105" s="5"/>
       <c r="F105" s="4"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="8"/>
+      <c r="H105" s="14"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
       <c r="D106" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="4"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="8"/>
+      <c r="H106" s="14"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
       <c r="D107" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="4"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="8"/>
+      <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8" ht="27">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
       <c r="D108" s="6" t="s">
         <v>128</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="4"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="8"/>
+      <c r="H108" s="14"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="9"/>
-      <c r="B109" s="17" t="s">
+      <c r="A109" s="13"/>
+      <c r="B109" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C109" s="17"/>
+      <c r="C109" s="20"/>
       <c r="D109" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="G109" s="13" t="s">
         <v>204</v>
       </c>
       <c r="H109" s="3"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="9"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
       <c r="D110" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="9"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="13"/>
       <c r="H110" s="3"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="9"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
       <c r="D111" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="9"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="13"/>
       <c r="H111" s="3"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="9"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
       <c r="D112" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="9"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="13"/>
       <c r="H112" s="3"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="9"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
       <c r="D113" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="9"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="13"/>
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="9"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
       <c r="D114" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="9"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="13"/>
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="9"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
       <c r="D115" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="9"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="13"/>
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="9"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
       <c r="D116" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="9"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="13"/>
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" ht="27">
-      <c r="A117" s="9"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
       <c r="D117" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="9"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="13"/>
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="9"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
       <c r="D118" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="9"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="13"/>
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9" t="s">
+      <c r="A119" s="13"/>
+      <c r="B119" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="13" t="s">
         <v>141</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="14" t="s">
         <v>181</v>
       </c>
       <c r="F119" s="4"/>
-      <c r="G119" s="9" t="s">
+      <c r="G119" s="13" t="s">
         <v>204</v>
       </c>
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" ht="27">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
       <c r="D120" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E120" s="8"/>
+      <c r="E120" s="14"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="9"/>
+      <c r="G120" s="13"/>
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
       <c r="D121" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E121" s="8"/>
+      <c r="E121" s="14"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="9"/>
+      <c r="G121" s="13"/>
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" ht="27">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
       <c r="D122" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E122" s="8"/>
+      <c r="E122" s="14"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="9"/>
+      <c r="G122" s="13"/>
       <c r="H122" s="3"/>
     </row>
     <row r="123" spans="1:8" ht="27">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9" t="s">
+      <c r="A123" s="13"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13" t="s">
         <v>149</v>
       </c>
       <c r="D123" s="7" t="s">
@@ -3032,13 +3041,13 @@
         <v>186</v>
       </c>
       <c r="F123" s="4"/>
-      <c r="G123" s="9"/>
+      <c r="G123" s="13"/>
       <c r="H123" s="3"/>
     </row>
     <row r="124" spans="1:8" ht="27">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
       <c r="D124" s="7" t="s">
         <v>150</v>
       </c>
@@ -3046,15 +3055,15 @@
         <v>185</v>
       </c>
       <c r="F124" s="4"/>
-      <c r="G124" s="9" t="s">
+      <c r="G124" s="13" t="s">
         <v>204</v>
       </c>
       <c r="H124" s="3"/>
     </row>
     <row r="125" spans="1:8" ht="40.5">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
       <c r="D125" s="7" t="s">
         <v>147</v>
       </c>
@@ -3062,13 +3071,13 @@
         <v>187</v>
       </c>
       <c r="F125" s="4"/>
-      <c r="G125" s="9"/>
+      <c r="G125" s="13"/>
       <c r="H125" s="3"/>
     </row>
     <row r="126" spans="1:8" ht="27">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
       <c r="D126" s="7" t="s">
         <v>148</v>
       </c>
@@ -3076,19 +3085,19 @@
         <v>188</v>
       </c>
       <c r="F126" s="4"/>
-      <c r="G126" s="9"/>
+      <c r="G126" s="13"/>
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="9"/>
-      <c r="B127" s="17" t="s">
+      <c r="A127" s="13"/>
+      <c r="B127" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C127" s="17"/>
+      <c r="C127" s="15"/>
       <c r="D127" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="14" t="s">
         <v>182</v>
       </c>
       <c r="F127" s="4"/>
@@ -3096,63 +3105,63 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="9"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="17"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
       <c r="D128" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E128" s="8"/>
+      <c r="E128" s="14"/>
       <c r="F128" s="4"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="9"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
       <c r="D129" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E129" s="8"/>
+      <c r="E129" s="14"/>
       <c r="F129" s="4"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="9"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
       <c r="D130" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E130" s="8"/>
+      <c r="E130" s="14"/>
       <c r="F130" s="4"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="9"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
       <c r="D131" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E131" s="8"/>
+      <c r="E131" s="14"/>
       <c r="F131" s="4"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="9"/>
-      <c r="B132" s="18" t="s">
+      <c r="A132" s="13"/>
+      <c r="B132" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C132" s="18"/>
+      <c r="C132" s="17"/>
       <c r="D132" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E132" s="14" t="s">
         <v>183</v>
       </c>
       <c r="F132" s="4"/>
@@ -3160,35 +3169,35 @@
       <c r="H132" s="3"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="9"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
       <c r="D133" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E133" s="8"/>
+      <c r="E133" s="14"/>
       <c r="F133" s="4"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="9"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
       <c r="D134" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E134" s="8"/>
+      <c r="E134" s="14"/>
       <c r="F134" s="4"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
     </row>
     <row r="135" spans="1:8" ht="27">
-      <c r="A135" s="9"/>
-      <c r="B135" s="17" t="s">
+      <c r="A135" s="13"/>
+      <c r="B135" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C135" s="17"/>
+      <c r="C135" s="15"/>
       <c r="D135" s="7" t="s">
         <v>160</v>
       </c>
@@ -3200,9 +3209,9 @@
       <c r="H135" s="3"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="9"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
       <c r="D136" s="4" t="s">
         <v>202</v>
       </c>
@@ -3212,9 +3221,9 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="9"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
       <c r="D137" s="4" t="s">
         <v>203</v>
       </c>
@@ -3224,95 +3233,149 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10" t="s">
+      <c r="A139" s="12"/>
+      <c r="B139" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10" t="s">
+      <c r="A140" s="12"/>
+      <c r="B140" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
     </row>
     <row r="141" spans="1:8" ht="30.6" customHeight="1">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10" t="s">
+      <c r="A141" s="12"/>
+      <c r="B141" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="13" t="s">
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="15"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="11"/>
     </row>
     <row r="142" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10" t="s">
+      <c r="A142" s="12"/>
+      <c r="B142" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="13" t="s">
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="15"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="11"/>
     </row>
     <row r="143" spans="1:8" ht="23.45" customHeight="1">
-      <c r="A143" s="12" t="s">
+      <c r="A143" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="E141:H141"/>
-    <mergeCell ref="E142:H142"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="E46:E55"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E60:E68"/>
+    <mergeCell ref="E69:E76"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="E86:E92"/>
+    <mergeCell ref="E93:E98"/>
+    <mergeCell ref="E99:E104"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="E127:E131"/>
+    <mergeCell ref="B132:C134"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="B109:C118"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="B119:B126"/>
+    <mergeCell ref="B127:C131"/>
+    <mergeCell ref="E109:E118"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="C93:C98"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="B86:B108"/>
+    <mergeCell ref="B56:C59"/>
+    <mergeCell ref="B60:C68"/>
+    <mergeCell ref="B69:C76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="F6:F14"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B15:B26"/>
+    <mergeCell ref="F99:F104"/>
+    <mergeCell ref="F109:F118"/>
+    <mergeCell ref="B135:C137"/>
+    <mergeCell ref="F27:F41"/>
+    <mergeCell ref="F46:F55"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="F60:F68"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="F74:F85"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="B27:B41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C55"/>
+    <mergeCell ref="B42:B55"/>
     <mergeCell ref="G119:G123"/>
     <mergeCell ref="G124:G126"/>
     <mergeCell ref="H86:H108"/>
@@ -3329,70 +3392,16 @@
     <mergeCell ref="G56:G59"/>
     <mergeCell ref="F86:F92"/>
     <mergeCell ref="F93:F98"/>
-    <mergeCell ref="F99:F104"/>
-    <mergeCell ref="F109:F118"/>
-    <mergeCell ref="B135:C137"/>
-    <mergeCell ref="F27:F41"/>
-    <mergeCell ref="F46:F55"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="F60:F68"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="F74:F85"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="B27:B41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C55"/>
-    <mergeCell ref="B42:B55"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C14"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="F6:F14"/>
-    <mergeCell ref="F19:F26"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B15:B26"/>
-    <mergeCell ref="C86:C92"/>
-    <mergeCell ref="C93:C98"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="B86:B108"/>
-    <mergeCell ref="B56:C59"/>
-    <mergeCell ref="B60:C68"/>
-    <mergeCell ref="B69:C76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="B132:C134"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E14"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="B109:C118"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="B119:B126"/>
-    <mergeCell ref="B127:C131"/>
-    <mergeCell ref="E109:E118"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E55"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E60:E68"/>
-    <mergeCell ref="E69:E76"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="E86:E92"/>
-    <mergeCell ref="E93:E98"/>
-    <mergeCell ref="E99:E104"/>
-    <mergeCell ref="E119:E122"/>
-    <mergeCell ref="E127:E131"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="E141:H141"/>
+    <mergeCell ref="E142:H142"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gmh-web/doc/gmh2.0.xlsx
+++ b/gmh-web/doc/gmh2.0.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\java\workspace\gmh\gmh-web\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouyuhuan/code/java/project/gmh/gmh-web/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6915"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17880" windowHeight="26580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -657,10 +663,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>充值密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">     店铺负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -901,6 +903,13 @@
   </si>
   <si>
     <t xml:space="preserve">     计划总工期三个月，试用期一个月，免费维护期三个月，系统总价格68000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置密码</t>
+    <rPh sb="0" eb="1">
+      <t>chong'zhi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,7 +917,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,29 +964,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,23 +994,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,7 +1020,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1037,6 +1046,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1048,32 +1084,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1391,24 +1406,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M124" sqref="M124"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="13" t="s">
-        <v>209</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>16</v>
@@ -1432,1373 +1447,1373 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.95" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>163</v>
+      <c r="E2" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="13" t="s">
-        <v>204</v>
+      <c r="G2" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="13"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="13"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="13"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="13"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="E6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="13"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="13"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="13"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="13"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="13"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="13"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="13"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="27">
-      <c r="A14" s="13"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="13"/>
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>165</v>
+      <c r="E15" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="13" t="s">
-        <v>205</v>
+      <c r="G15" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="13"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="13"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="13"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="13"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="13"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" s="13"/>
+      <c r="E19" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="10"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="13"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="13"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="13"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="27">
-      <c r="A22" s="13"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="13"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="13"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="13"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="13"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="13"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="13"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="13"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="13"/>
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>204</v>
+      <c r="E27" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="13"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="13"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="13"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="13"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="13"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="13"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="13"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="13"/>
+      <c r="E32" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="13"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="13"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="13"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="13"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="13"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="13"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="13"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="13"/>
+      <c r="E37" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="13"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="13"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="13"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="13"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="13"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="13"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="13"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="13"/>
-      <c r="B42" s="18" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>170</v>
+      <c r="E42" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="13" t="s">
-        <v>206</v>
+      <c r="G42" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="13"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="14"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="13"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="13"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="14"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="13"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="13"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="14"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="13"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="13"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="G46" s="13"/>
+      <c r="E46" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" s="10"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="13"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="13"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="13"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="13"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="13"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="13"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="13"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="13"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="13"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="13"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="13"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="13"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" ht="27">
-      <c r="A53" s="13"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="13"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="13"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="13"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="13"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="13"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="13"/>
-      <c r="B56" s="20" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="20"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>204</v>
+      <c r="E56" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="13"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="13"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="13"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="13"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="10"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="13"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="13"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="10"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="13"/>
-      <c r="B60" s="20" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="20"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>207</v>
+      <c r="E60" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="13"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="13"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="10"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" ht="27">
-      <c r="A62" s="13"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="13"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="10"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="13"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="13"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="10"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="13"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="13"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="10"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="13"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="10"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="13"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="10"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="13"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="13"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="10"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" ht="27">
-      <c r="A67" s="13"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
       <c r="D67" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="13"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="10"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="13"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
       <c r="D68" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="13"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="10"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" ht="14.1" customHeight="1">
-      <c r="A69" s="13"/>
-      <c r="B69" s="20" t="s">
+    <row r="69" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="10"/>
+      <c r="B69" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="20"/>
+      <c r="C69" s="11"/>
       <c r="D69" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E69" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>195</v>
+      <c r="E69" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" ht="27">
-      <c r="A70" s="13"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A70" s="10"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
       <c r="D70" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="16"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="15"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="13"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="16"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="15"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" ht="27">
-      <c r="A72" s="13"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A72" s="10"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
       <c r="D72" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="16"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="15"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" ht="42.95" customHeight="1">
-      <c r="A73" s="13"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
+    <row r="73" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="10"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
       <c r="D73" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="13" t="s">
-        <v>207</v>
+      <c r="E73" s="8"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" ht="14.1" customHeight="1">
-      <c r="A74" s="13"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
+    <row r="74" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
       <c r="D74" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G74" s="13"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G74" s="10"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="13"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="10"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
       <c r="D75" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="13"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="10"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" ht="48.6" customHeight="1">
-      <c r="A76" s="13"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
+    <row r="76" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="10"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
       <c r="D76" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="13"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="10"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="13"/>
-      <c r="B77" s="18" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="10"/>
+      <c r="B77" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="13" t="s">
-        <v>207</v>
+      <c r="E77" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" s="16"/>
+      <c r="G77" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="13"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="10"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
       <c r="D78" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="13"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="10"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A79" s="13"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
+    <row r="79" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="10"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
       <c r="D79" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="13"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="10"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="13"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="10"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13" t="s">
         <v>99</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E80" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F80" s="12"/>
-      <c r="G80" s="13"/>
+      <c r="E80" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F80" s="16"/>
+      <c r="G80" s="10"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="13"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="10"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
       <c r="D81" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="13"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" ht="60" customHeight="1">
-      <c r="A82" s="13"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
+    <row r="82" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="10"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
       <c r="D82" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="13"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="10"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="13"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="10"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13" t="s">
         <v>92</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E83" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="13"/>
+      <c r="E83" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F83" s="16"/>
+      <c r="G83" s="10"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" ht="27">
-      <c r="A84" s="13"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A84" s="10"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="13"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="10"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" ht="48.95" customHeight="1">
-      <c r="A85" s="13"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
+    <row r="85" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="10"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
       <c r="D85" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="13"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="10"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:8" ht="27">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13" t="s">
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="10" t="s">
         <v>107</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E86" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="F86" s="14" t="s">
+      <c r="E86" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="G86" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="H86" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="27">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
+      <c r="F86" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
       <c r="D87" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="14"/>
-    </row>
-    <row r="88" spans="1:8" ht="27">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
       <c r="D88" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="14"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
       <c r="D89" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="14"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
       <c r="D90" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="14"/>
-    </row>
-    <row r="91" spans="1:8" ht="27">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
       <c r="D91" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="14"/>
-    </row>
-    <row r="92" spans="1:8" ht="27">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
       <c r="D92" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="14"/>
-    </row>
-    <row r="93" spans="1:8" ht="27">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13" t="s">
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10" t="s">
         <v>114</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E93" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="G93" s="13"/>
-      <c r="H93" s="14"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
+      <c r="E93" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G93" s="10"/>
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
       <c r="D94" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="14"/>
-    </row>
-    <row r="95" spans="1:8" ht="27">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
       <c r="D95" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="14"/>
-    </row>
-    <row r="96" spans="1:8" ht="27">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
       <c r="D96" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="14"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
       <c r="D97" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="14"/>
-    </row>
-    <row r="98" spans="1:8" ht="27">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
       <c r="D98" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="14"/>
-    </row>
-    <row r="99" spans="1:8" ht="27">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13" t="s">
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10" t="s">
         <v>121</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E99" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G99" s="13"/>
-      <c r="H99" s="14"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
+      <c r="E99" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G99" s="10"/>
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
       <c r="D100" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="14"/>
-    </row>
-    <row r="101" spans="1:8" ht="27">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
       <c r="D101" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="14"/>
-    </row>
-    <row r="102" spans="1:8" ht="27">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
       <c r="D102" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="14"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="8"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
       <c r="D103" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="14"/>
-    </row>
-    <row r="104" spans="1:8" ht="27">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="8"/>
+    </row>
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
       <c r="D104" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="14"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13" t="s">
-        <v>162</v>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="8"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>125</v>
@@ -2806,525 +2821,573 @@
       <c r="E105" s="5"/>
       <c r="F105" s="4"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="14"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="13"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
+      <c r="H105" s="8"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
       <c r="D106" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="4"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="14"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
+      <c r="H106" s="8"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
       <c r="D107" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="4"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="14"/>
-    </row>
-    <row r="108" spans="1:8" ht="27">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
+      <c r="H107" s="8"/>
+    </row>
+    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
       <c r="D108" s="6" t="s">
         <v>128</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="4"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="14"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="13"/>
-      <c r="B109" s="20" t="s">
+      <c r="H108" s="8"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="10"/>
+      <c r="B109" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C109" s="20"/>
+      <c r="C109" s="11"/>
       <c r="D109" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E109" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>204</v>
+      <c r="E109" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="13"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="20"/>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="10"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
       <c r="D110" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="13"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="10"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="13"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="10"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
       <c r="D111" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="13"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="10"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="13"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="20"/>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="10"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
       <c r="D112" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="13"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="10"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="13"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="10"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
       <c r="D113" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="13"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="10"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="13"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="20"/>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="10"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
       <c r="D114" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="13"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="10"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="13"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="10"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
       <c r="D115" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="13"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="10"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="13"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="10"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
       <c r="D116" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="13"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="10"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="1:8" ht="27">
-      <c r="A117" s="13"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A117" s="10"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
       <c r="D117" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="13"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="10"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="13"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="20"/>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="10"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
       <c r="D118" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="13"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="10"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="13"/>
-      <c r="B119" s="13" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E119" s="14" t="s">
-        <v>181</v>
+      <c r="E119" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="F119" s="4"/>
-      <c r="G119" s="13" t="s">
-        <v>204</v>
+      <c r="G119" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:8" ht="27">
-      <c r="A120" s="13"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
       <c r="D120" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E120" s="14"/>
+      <c r="E120" s="8"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="13"/>
+      <c r="G120" s="10"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
       <c r="D121" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E121" s="14"/>
+      <c r="E121" s="8"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="13"/>
+      <c r="G121" s="10"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="1:8" ht="27">
-      <c r="A122" s="13"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
       <c r="D122" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E122" s="14"/>
+      <c r="E122" s="8"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="13"/>
+      <c r="G122" s="10"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="1:8" ht="27">
-      <c r="A123" s="13"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13" t="s">
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10" t="s">
         <v>149</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>146</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F123" s="4"/>
-      <c r="G123" s="13"/>
+      <c r="G123" s="10"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="1:8" ht="27">
-      <c r="A124" s="13"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
       <c r="D124" s="7" t="s">
         <v>150</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F124" s="4"/>
-      <c r="G124" s="13" t="s">
-        <v>204</v>
+      <c r="G124" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:8" ht="40.5">
-      <c r="A125" s="13"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
+    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
       <c r="D125" s="7" t="s">
         <v>147</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F125" s="4"/>
-      <c r="G125" s="13"/>
+      <c r="G125" s="10"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="1:8" ht="27">
-      <c r="A126" s="13"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
       <c r="D126" s="7" t="s">
         <v>148</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F126" s="4"/>
-      <c r="G126" s="13"/>
+      <c r="G126" s="10"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="13"/>
-      <c r="B127" s="15" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="10"/>
+      <c r="B127" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="7" t="s">
+      <c r="C127" s="12"/>
+      <c r="D127" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="E127" s="14" t="s">
-        <v>182</v>
+      <c r="E127" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="13"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="7" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="10"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="E128" s="14"/>
+      <c r="E128" s="22"/>
       <c r="F128" s="4"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="13"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="7" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="10"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="E129" s="14"/>
+      <c r="E129" s="22"/>
       <c r="F129" s="4"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="13"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="7" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="10"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="E130" s="14"/>
+      <c r="E130" s="22"/>
       <c r="F130" s="4"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
     </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="13"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="7" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="10"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="E131" s="14"/>
+      <c r="E131" s="22"/>
       <c r="F131" s="4"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="13"/>
-      <c r="B132" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C132" s="17"/>
-      <c r="D132" s="7" t="s">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="10"/>
+      <c r="B132" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E132" s="14" t="s">
-        <v>183</v>
+      <c r="E132" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="13"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="7" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="10"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="E133" s="14"/>
+      <c r="E133" s="22"/>
       <c r="F133" s="4"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="13"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E134" s="14"/>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="10"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E134" s="22"/>
       <c r="F134" s="4"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="1:8" ht="27">
-      <c r="A135" s="13"/>
-      <c r="B135" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C135" s="15"/>
+    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A135" s="10"/>
+      <c r="B135" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C135" s="12"/>
       <c r="D135" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="13"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="4" t="s">
-        <v>202</v>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="10"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="21" t="s">
+        <v>201</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="4"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="13"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="4" t="s">
-        <v>203</v>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="10"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="21" t="s">
+        <v>202</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="4"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="12" t="s">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B138" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
     </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="16"/>
+      <c r="B139" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
+    <row r="140" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="16"/>
+      <c r="B140" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
     </row>
-    <row r="141" spans="1:8" ht="30.6" customHeight="1">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12" t="s">
+    <row r="141" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="16"/>
+      <c r="B141" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="9" t="s">
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="20"/>
+    </row>
+    <row r="142" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="16"/>
+      <c r="B142" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="11"/>
-    </row>
-    <row r="142" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12" t="s">
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="9" t="s">
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="20"/>
+    </row>
+    <row r="143" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="11"/>
-    </row>
-    <row r="143" spans="1:8" ht="23.45" customHeight="1">
-      <c r="A143" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="E46:E55"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E60:E68"/>
-    <mergeCell ref="E69:E76"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="E86:E92"/>
-    <mergeCell ref="E93:E98"/>
-    <mergeCell ref="E99:E104"/>
-    <mergeCell ref="E119:E122"/>
-    <mergeCell ref="E127:E131"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="E141:H141"/>
+    <mergeCell ref="E142:H142"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="G119:G123"/>
+    <mergeCell ref="G124:G126"/>
+    <mergeCell ref="H86:H108"/>
+    <mergeCell ref="A1:A137"/>
+    <mergeCell ref="G60:G68"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="G77:G85"/>
+    <mergeCell ref="G86:G104"/>
+    <mergeCell ref="G109:G118"/>
+    <mergeCell ref="G2:G14"/>
+    <mergeCell ref="G15:G26"/>
+    <mergeCell ref="G27:G41"/>
+    <mergeCell ref="G42:G55"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="F86:F92"/>
+    <mergeCell ref="F93:F98"/>
+    <mergeCell ref="F99:F104"/>
+    <mergeCell ref="F109:F118"/>
+    <mergeCell ref="B135:C137"/>
+    <mergeCell ref="F27:F41"/>
+    <mergeCell ref="F46:F55"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="F60:F68"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="F74:F85"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="B27:B41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C55"/>
+    <mergeCell ref="B42:B55"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="F6:F14"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B15:B26"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="C93:C98"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="B86:B108"/>
+    <mergeCell ref="B56:C59"/>
+    <mergeCell ref="B60:C68"/>
+    <mergeCell ref="B69:C76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B77:B85"/>
     <mergeCell ref="B132:C134"/>
     <mergeCell ref="C105:C108"/>
     <mergeCell ref="E2:E5"/>
@@ -3341,67 +3404,19 @@
     <mergeCell ref="B127:C131"/>
     <mergeCell ref="E109:E118"/>
     <mergeCell ref="E42:E45"/>
-    <mergeCell ref="C86:C92"/>
-    <mergeCell ref="C93:C98"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="B86:B108"/>
-    <mergeCell ref="B56:C59"/>
-    <mergeCell ref="B60:C68"/>
-    <mergeCell ref="B69:C76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C14"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="F6:F14"/>
-    <mergeCell ref="F19:F26"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B15:B26"/>
-    <mergeCell ref="F99:F104"/>
-    <mergeCell ref="F109:F118"/>
-    <mergeCell ref="B135:C137"/>
-    <mergeCell ref="F27:F41"/>
-    <mergeCell ref="F46:F55"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="F60:F68"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="F74:F85"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="B27:B41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C55"/>
-    <mergeCell ref="B42:B55"/>
-    <mergeCell ref="G119:G123"/>
-    <mergeCell ref="G124:G126"/>
-    <mergeCell ref="H86:H108"/>
-    <mergeCell ref="A1:A137"/>
-    <mergeCell ref="G60:G68"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="G77:G85"/>
-    <mergeCell ref="G86:G104"/>
-    <mergeCell ref="G109:G118"/>
-    <mergeCell ref="G2:G14"/>
-    <mergeCell ref="G15:G26"/>
-    <mergeCell ref="G27:G41"/>
-    <mergeCell ref="G42:G55"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="F86:F92"/>
-    <mergeCell ref="F93:F98"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="E141:H141"/>
-    <mergeCell ref="E142:H142"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="E46:E55"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E60:E68"/>
+    <mergeCell ref="E69:E76"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="E86:E92"/>
+    <mergeCell ref="E93:E98"/>
+    <mergeCell ref="E99:E104"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="E127:E131"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
